--- a/Hardware/Documents/BOM for motor control board.xlsx
+++ b/Hardware/Documents/BOM for motor control board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\OpenProjects\MotorControlBoard\Hardware\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AAA7E4-5725-4001-BA11-9B41D18A733F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9A1797-392C-4125-83CE-347A932A78D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="168">
   <si>
     <t>Value</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Connector, 4pin, 1.25mm, 50VDC, 1A</t>
   </si>
   <si>
-    <t>X4, X5, X6, X7, X8</t>
-  </si>
-  <si>
     <t>PLD-6</t>
   </si>
   <si>
@@ -522,6 +519,18 @@
   </si>
   <si>
     <t>IC logic AND, 0.8...3.6V, -40...+85°C, 8-VSSOP</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>PLD-4</t>
+  </si>
+  <si>
+    <t>Connector, 4pin, 2.54mm, 500VAC, 3A</t>
+  </si>
+  <si>
+    <t>X5, X6, X7, X8</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1053,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,19 +1270,19 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1284,19 +1293,19 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1307,19 +1316,19 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1330,19 +1339,19 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1353,19 +1362,19 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1376,19 +1385,19 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1397,23 +1406,21 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1423,22 +1430,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1447,21 +1454,23 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1472,19 +1481,19 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1495,19 +1504,19 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1518,19 +1527,19 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1541,19 +1550,19 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1564,19 +1573,19 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1587,19 +1596,19 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1610,19 +1619,19 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1633,19 +1642,19 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1656,19 +1665,19 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1679,19 +1688,19 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1702,19 +1711,19 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1725,19 +1734,19 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1748,19 +1757,19 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1769,23 +1778,21 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1795,22 +1802,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1820,22 +1827,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1845,22 +1852,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1870,22 +1877,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1895,22 +1902,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1920,22 +1927,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1945,22 +1952,22 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1970,22 +1977,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1994,21 +2001,23 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="B40" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2019,19 +2028,19 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2042,19 +2051,19 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2062,22 +2071,22 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>163</v>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2085,12 +2094,35 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
